--- a/data/trans_orig/P15C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D217886-E536-4739-9BE1-FBD11B0FAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C223462B-E869-4537-8FB4-4AE50EA26CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94CB18F5-ED89-4D5F-8F6F-B79D70598FD2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C82AF400-2355-47B5-A8EF-A49FF25A7864}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="691">
   <si>
     <t>Población según el principal daño o lesión producido en el último accidente en 2007 (Tasa respuesta: 3,19%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>16,49%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>2,36%</t>
@@ -89,1984 +89,2002 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>Heridas profundas</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>Contusiones, hematomas, esguinces, luxaciones</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>Fracturas</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>Quemaduras</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>Envenenamiento o Intoxicación (no alimentarias)</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>Heridas profundas</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el principal daño o lesión producido en el último accidente en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>Contusiones, hematomas, esguinces, luxaciones</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>Fracturas</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>Quemaduras</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>Envenenamiento o Intoxicación (no alimentarias)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Población según el principal daño o lesión producido en el último accidente en 2015 (Tasa respuesta: 5,47%)</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>Población según el principal daño o lesión producido en el último accidente en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
   </si>
   <si>
     <t>74,18%</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el principal daño o lesión producido en el último accidente en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>Población según el principal daño o lesión producido en el último accidente en 2015 (Tasa respuesta: 5,47%)</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>Población según el principal daño o lesión producido en el último accidente en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>25,98%</t>
   </si>
   <si>
     <t>1,17%</t>
@@ -2075,25 +2093,25 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
     <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943A4C7B-A3F3-4FEA-A2FC-B49FD8A8C347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50056DE9-9DD8-4E60-8BE8-C8ECB2ABCC7C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2851,10 +2869,10 @@
         <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2863,19 +2881,19 @@
         <v>2567</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2905,7 +2923,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3234,7 +3252,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -3551,13 +3569,13 @@
         <v>949</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3581,19 +3599,19 @@
         <v>949</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -3608,7 +3626,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3632,13 +3650,13 @@
         <v>1038</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3724,13 @@
         <v>15080</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3721,13 +3739,13 @@
         <v>5828</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -3736,7 +3754,7 @@
         <v>20909</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>150</v>
@@ -3793,7 +3811,7 @@
         <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3826,13 @@
         <v>59051</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H27" s="7">
         <v>58</v>
@@ -3823,13 +3841,13 @@
         <v>61404</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M27" s="7">
         <v>116</v>
@@ -3838,13 +3856,13 @@
         <v>120454</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3877,13 @@
         <v>27357</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -3874,13 +3892,13 @@
         <v>17503</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -3889,13 +3907,13 @@
         <v>44860</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3928,13 @@
         <v>7537</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3925,13 +3943,13 @@
         <v>4568</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -3940,19 +3958,19 @@
         <v>12105</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -3961,13 +3979,13 @@
         <v>1038</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3982,7 +4000,7 @@
         <v>51</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3991,13 +4009,13 @@
         <v>1038</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,7 +4071,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +4090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAA6EFB-5EF2-41D4-9C31-F70419D1DBA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB243983-EC22-47EF-BA52-C13A6F7AC5C8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4089,7 +4107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4196,13 +4214,13 @@
         <v>4162</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4211,13 +4229,13 @@
         <v>5373</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4226,10 +4244,10 @@
         <v>9535</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>201</v>
@@ -4250,10 +4268,10 @@
         <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4262,13 +4280,13 @@
         <v>5992</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4277,13 +4295,13 @@
         <v>10445</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4316,13 @@
         <v>45191</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>59</v>
@@ -4313,13 +4331,13 @@
         <v>62388</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>100</v>
@@ -4328,13 +4346,13 @@
         <v>107580</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4367,13 @@
         <v>14393</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4364,13 +4382,13 @@
         <v>18012</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4379,13 +4397,13 @@
         <v>32405</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4418,13 @@
         <v>7554</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4415,13 +4433,13 @@
         <v>21171</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4430,19 +4448,19 @@
         <v>28726</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4472,7 +4490,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4487,7 +4505,7 @@
         <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,10 +4573,10 @@
         <v>11096</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>239</v>
@@ -4573,10 +4591,10 @@
         <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -4585,13 +4603,13 @@
         <v>20894</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4624,13 @@
         <v>15388</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -4621,13 +4639,13 @@
         <v>9375</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -4636,13 +4654,13 @@
         <v>24763</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4675,13 @@
         <v>121166</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -4672,13 +4690,13 @@
         <v>60270</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -4687,13 +4705,13 @@
         <v>181436</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4726,13 @@
         <v>22649</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4723,10 +4741,10 @@
         <v>18937</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>267</v>
@@ -4765,7 +4783,7 @@
         <v>272</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -4774,13 +4792,13 @@
         <v>16336</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -4789,19 +4807,19 @@
         <v>26485</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -4810,13 +4828,13 @@
         <v>1010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4831,7 +4849,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4840,13 +4858,13 @@
         <v>1010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4932,13 @@
         <v>1085</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>173</v>
+        <v>285</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4929,13 +4947,13 @@
         <v>1800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -4944,13 +4962,13 @@
         <v>2886</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4983,13 @@
         <v>1003</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4980,13 +4998,13 @@
         <v>1014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4995,13 +5013,13 @@
         <v>2018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5034,13 @@
         <v>21089</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -5031,13 +5049,13 @@
         <v>18907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -5046,13 +5064,13 @@
         <v>39996</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5085,13 @@
         <v>2877</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5082,13 +5100,13 @@
         <v>1244</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5100,10 +5118,10 @@
         <v>24</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,7 +5142,7 @@
         <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5133,13 +5151,13 @@
         <v>4766</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -5148,19 +5166,19 @@
         <v>4766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -5175,7 +5193,7 @@
         <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5190,7 +5208,7 @@
         <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5205,7 +5223,7 @@
         <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5291,13 @@
         <v>16344</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -5288,13 +5306,13 @@
         <v>16971</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -5303,13 +5321,13 @@
         <v>33314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5342,13 @@
         <v>20845</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5339,13 +5357,13 @@
         <v>16382</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -5354,13 +5372,13 @@
         <v>37226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5393,13 @@
         <v>187446</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H27" s="7">
         <v>132</v>
@@ -5390,13 +5408,13 @@
         <v>141565</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M27" s="7">
         <v>311</v>
@@ -5405,13 +5423,13 @@
         <v>329012</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5444,13 @@
         <v>39919</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -5441,13 +5459,13 @@
         <v>38193</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
@@ -5456,13 +5474,13 @@
         <v>78111</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,7 +5537,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -5620,7 +5638,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5639,7 +5657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2ADF9C-C091-400F-8D27-C4D4C3D4B97A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249527CD-C8A5-47E7-B524-16A3D46E52A2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5778,7 +5796,7 @@
         <v>1285</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
@@ -5850,7 +5868,7 @@
         <v>382</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5883,13 @@
         <v>24172</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="H6" s="7">
         <v>42</v>
@@ -5880,13 +5898,13 @@
         <v>49702</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -5895,13 +5913,13 @@
         <v>73874</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5934,13 @@
         <v>10254</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5931,13 +5949,13 @@
         <v>14966</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -5946,13 +5964,13 @@
         <v>25220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5985,13 @@
         <v>973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5988,7 +6006,7 @@
         <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5997,19 +6015,19 @@
         <v>973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -6024,7 +6042,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6039,7 +6057,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6054,7 +6072,7 @@
         <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>282</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6140,13 @@
         <v>9131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>410</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -6137,13 +6155,13 @@
         <v>9945</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -6152,13 +6170,13 @@
         <v>19076</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>415</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6191,13 @@
         <v>8223</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>420</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -6188,13 +6206,13 @@
         <v>6098</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>416</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -6203,13 +6221,13 @@
         <v>14321</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>417</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6242,13 @@
         <v>75467</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -6239,13 +6257,13 @@
         <v>50113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -6254,13 +6272,13 @@
         <v>125580</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6293,13 @@
         <v>21143</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -6290,13 +6308,13 @@
         <v>12403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -6305,13 +6323,13 @@
         <v>33546</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6344,13 @@
         <v>4002</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -6341,13 +6359,13 @@
         <v>4757</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>440</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -6356,19 +6374,19 @@
         <v>8760</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>441</v>
+        <v>228</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -6383,7 +6401,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6392,13 +6410,13 @@
         <v>2529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6407,13 +6425,13 @@
         <v>2529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6499,13 @@
         <v>5491</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>449</v>
+        <v>150</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6496,13 +6514,13 @@
         <v>1929</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -6511,13 +6529,13 @@
         <v>7420</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>454</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6550,13 @@
         <v>1970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6553,7 +6571,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -6562,13 +6580,13 @@
         <v>4315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6601,13 @@
         <v>16010</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6598,13 +6616,13 @@
         <v>20203</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>468</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -6613,13 +6631,13 @@
         <v>36213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6652,13 @@
         <v>6457</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -6649,13 +6667,13 @@
         <v>6530</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -6664,13 +6682,13 @@
         <v>12987</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>401</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6703,13 @@
         <v>868</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6706,7 +6724,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -6715,19 +6733,19 @@
         <v>868</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>483</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -6742,7 +6760,7 @@
         <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6757,7 +6775,7 @@
         <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6772,7 +6790,7 @@
         <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6858,13 @@
         <v>18308</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6855,13 +6873,13 @@
         <v>13160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>487</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -6870,13 +6888,13 @@
         <v>31468</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>489</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6909,13 @@
         <v>16005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>263</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6906,13 +6924,13 @@
         <v>14928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -6921,13 +6939,13 @@
         <v>30934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6960,13 @@
         <v>115649</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H27" s="7">
         <v>109</v>
@@ -6957,13 +6975,13 @@
         <v>120017</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="M27" s="7">
         <v>222</v>
@@ -6972,13 +6990,13 @@
         <v>235667</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +7011,13 @@
         <v>37854</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -7008,13 +7026,13 @@
         <v>33899</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -7023,13 +7041,13 @@
         <v>71753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>515</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7062,13 @@
         <v>5843</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>237</v>
+        <v>519</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -7059,13 +7077,13 @@
         <v>4757</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -7074,19 +7092,19 @@
         <v>10601</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>520</v>
+        <v>272</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -7101,7 +7119,7 @@
         <v>51</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -7110,13 +7128,13 @@
         <v>2529</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -7125,13 +7143,13 @@
         <v>2529</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>527</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,7 +7205,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -7206,7 +7224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A719B6F-3480-47E6-9E3F-1BF67A42FC49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF4B76-4DB0-4225-92E9-7D7701FE76C1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7223,7 +7241,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7330,13 +7348,13 @@
         <v>5001</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -7345,13 +7363,13 @@
         <v>7763</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -7387,7 +7405,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>539</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -7396,13 +7414,13 @@
         <v>3441</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7411,13 +7429,13 @@
         <v>3806</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7450,13 @@
         <v>21130</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H6" s="7">
         <v>105</v>
@@ -7447,13 +7465,13 @@
         <v>55812</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M6" s="7">
         <v>139</v>
@@ -7462,13 +7480,13 @@
         <v>76941</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7501,13 @@
         <v>9755</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -7498,13 +7516,13 @@
         <v>18219</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -7513,13 +7531,13 @@
         <v>27974</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,7 +7558,7 @@
         <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7549,13 +7567,13 @@
         <v>501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7564,19 +7582,19 @@
         <v>501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>566</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -7591,7 +7609,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7600,13 +7618,13 @@
         <v>653</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>288</v>
+        <v>565</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7615,13 +7633,13 @@
         <v>653</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>569</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7707,13 @@
         <v>14344</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -7704,13 +7722,13 @@
         <v>10050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>573</v>
+        <v>447</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>574</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -7719,13 +7737,13 @@
         <v>24394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7758,13 @@
         <v>17471</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -7755,13 +7773,13 @@
         <v>7607</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -7770,13 +7788,13 @@
         <v>25078</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>115</v>
+        <v>581</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7809,13 @@
         <v>64601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -7806,13 +7824,13 @@
         <v>69748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>587</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -7821,13 +7839,13 @@
         <v>134349</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,13 +7860,13 @@
         <v>34246</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -7857,13 +7875,13 @@
         <v>18856</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -7872,13 +7890,13 @@
         <v>53102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>598</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7899,7 +7917,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>288</v>
+        <v>572</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -7908,13 +7926,13 @@
         <v>4603</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>241</v>
+        <v>602</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -7923,19 +7941,19 @@
         <v>5790</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>137</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -7944,13 +7962,13 @@
         <v>1336</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>605</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7965,7 +7983,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7974,13 +7992,13 @@
         <v>1336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>18</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8066,13 @@
         <v>8242</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -8063,13 +8081,13 @@
         <v>2825</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>614</v>
+        <v>350</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -8078,13 +8096,13 @@
         <v>11068</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8117,13 @@
         <v>2354</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -8114,13 +8132,13 @@
         <v>1086</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8129,13 +8147,13 @@
         <v>3440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8168,13 @@
         <v>16131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>627</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -8165,13 +8183,13 @@
         <v>20724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
@@ -8180,13 +8198,13 @@
         <v>36855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,13 +8219,13 @@
         <v>6240</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -8216,13 +8234,13 @@
         <v>8133</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -8231,13 +8249,13 @@
         <v>14374</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>314</v>
+        <v>642</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8270,13 @@
         <v>1186</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>645</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -8267,13 +8285,13 @@
         <v>847</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -8282,19 +8300,19 @@
         <v>2033</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -8309,7 +8327,7 @@
         <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8324,7 +8342,7 @@
         <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8339,7 +8357,7 @@
         <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,13 +8425,13 @@
         <v>27588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -8422,13 +8440,13 @@
         <v>20638</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>649</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -8437,13 +8455,13 @@
         <v>48226</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8458,13 +8476,13 @@
         <v>20191</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>655</v>
+        <v>193</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -8473,13 +8491,13 @@
         <v>12134</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>520</v>
+        <v>661</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>662</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -8488,13 +8506,13 @@
         <v>32325</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>469</v>
+        <v>663</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>498</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8509,13 +8527,13 @@
         <v>101862</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="H27" s="7">
         <v>226</v>
@@ -8524,13 +8542,13 @@
         <v>146283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="M27" s="7">
         <v>342</v>
@@ -8539,13 +8557,13 @@
         <v>248145</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8560,13 +8578,13 @@
         <v>50241</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -8575,13 +8593,13 @@
         <v>45209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -8590,13 +8608,13 @@
         <v>95450</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>674</v>
+        <v>276</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>595</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,13 +8629,13 @@
         <v>2373</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -8626,13 +8644,13 @@
         <v>5952</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>687</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -8641,19 +8659,19 @@
         <v>8324</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>313</v>
+        <v>444</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>688</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -8662,13 +8680,13 @@
         <v>1336</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>681</v>
+        <v>313</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8677,13 +8695,13 @@
         <v>653</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>373</v>
+        <v>526</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -8692,13 +8710,13 @@
         <v>1989</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>684</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8754,7 +8772,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C223462B-E869-4537-8FB4-4AE50EA26CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84F4FB28-196D-4A25-913E-209DFC984949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C82AF400-2355-47B5-A8EF-A49FF25A7864}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78BC23A8-8447-4440-A08C-138C9EAE9A80}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="681">
   <si>
     <t>Población según el principal daño o lesión producido en el último accidente en 2007 (Tasa respuesta: 3,19%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>4,16%</t>
   </si>
   <si>
-    <t>34,47%</t>
+    <t>34,07%</t>
   </si>
   <si>
     <t>2,36%</t>
@@ -89,2029 +89,1999 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>Heridas profundas</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>Contusiones, hematomas, esguinces, luxaciones</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>Fracturas</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>Quemaduras</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>Envenenamiento o Intoxicación (no alimentarias)</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el principal daño o lesión producido en el último accidente en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>Población según el principal daño o lesión producido en el último accidente en 2016 (Tasa respuesta: 5,47%)</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>Heridas profundas</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>Población según el principal daño o lesión producido en el último accidente en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>Contusiones, hematomas, esguinces, luxaciones</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>Fracturas</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>Quemaduras</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>Envenenamiento o Intoxicación (no alimentarias)</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el principal daño o lesión producido en el último accidente en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>Población según el principal daño o lesión producido en el último accidente en 2015 (Tasa respuesta: 5,47%)</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>Población según el principal daño o lesión producido en el último accidente en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50056DE9-9DD8-4E60-8BE8-C8ECB2ABCC7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1471D6-521D-4FCE-A817-15BE91606F31}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2869,10 +2839,10 @@
         <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2881,19 +2851,19 @@
         <v>2567</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2923,7 +2893,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2938,7 +2908,7 @@
         <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2923,13 @@
         <v>25174</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -2968,13 +2938,13 @@
         <v>45528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -2983,18 +2953,18 @@
         <v>70702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -3006,13 +2976,13 @@
         <v>10930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3021,13 +2991,13 @@
         <v>2821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -3036,13 +3006,13 @@
         <v>13751</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3027,13 @@
         <v>7993</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3072,13 +3042,13 @@
         <v>1018</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -3087,13 +3057,13 @@
         <v>9011</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3078,13 @@
         <v>33808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3123,13 +3093,13 @@
         <v>21978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3138,13 +3108,13 @@
         <v>55786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3129,13 @@
         <v>19185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3174,13 +3144,13 @@
         <v>7225</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -3189,13 +3159,13 @@
         <v>26409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3180,13 @@
         <v>6588</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -3225,13 +3195,13 @@
         <v>2001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -3240,7 +3210,7 @@
         <v>8589</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>104</v>
@@ -3252,7 +3222,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -3312,13 +3282,13 @@
         <v>78503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -3327,13 +3297,13 @@
         <v>35042</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -3342,13 +3312,13 @@
         <v>113546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,7 +3422,7 @@
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3437,13 @@
         <v>13467</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3482,13 +3452,13 @@
         <v>7771</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -3497,13 +3467,13 @@
         <v>21239</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3488,13 @@
         <v>1827</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3533,13 +3503,13 @@
         <v>3531</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -3548,13 +3518,13 @@
         <v>5358</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3545,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3599,19 +3569,19 @@
         <v>949</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -3626,7 +3596,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3650,13 +3620,13 @@
         <v>1038</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3641,13 @@
         <v>18397</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -3686,13 +3656,13 @@
         <v>13236</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -3701,13 +3671,13 @@
         <v>31633</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3694,13 @@
         <v>15080</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3739,13 +3709,13 @@
         <v>5828</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -3754,13 +3724,13 @@
         <v>20909</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3745,13 @@
         <v>12011</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3790,13 +3760,13 @@
         <v>4503</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -3805,13 +3775,13 @@
         <v>16514</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,7 +3904,7 @@
         <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3943,13 +3913,13 @@
         <v>4568</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -3958,10 +3928,10 @@
         <v>12105</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>185</v>
@@ -3970,7 +3940,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -4030,13 +4000,13 @@
         <v>122074</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>90</v>
@@ -4045,13 +4015,13 @@
         <v>93806</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M31" s="7">
         <v>208</v>
@@ -4060,13 +4030,13 @@
         <v>215880</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB243983-EC22-47EF-BA52-C13A6F7AC5C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB54853-AAE3-4AD2-8A58-F8945F73F23A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4247,10 +4217,10 @@
         <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,10 +4235,10 @@
         <v>4453</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>203</v>
@@ -4298,10 +4268,10 @@
         <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4286,13 @@
         <v>45191</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>59</v>
@@ -4331,13 +4301,13 @@
         <v>62388</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>100</v>
@@ -4346,13 +4316,13 @@
         <v>107580</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4337,13 @@
         <v>14393</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4382,13 +4352,13 @@
         <v>18012</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4397,13 +4367,13 @@
         <v>32405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4388,13 @@
         <v>7554</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4433,13 +4403,13 @@
         <v>21171</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4448,19 +4418,19 @@
         <v>28726</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4475,7 +4445,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4490,7 +4460,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4520,13 +4490,13 @@
         <v>75754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -4535,13 +4505,13 @@
         <v>112937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -4550,18 +4520,18 @@
         <v>188691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4591,10 +4561,10 @@
         <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -4603,13 +4573,13 @@
         <v>20894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4594,13 @@
         <v>15388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -4639,13 +4609,13 @@
         <v>9375</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -4654,13 +4624,13 @@
         <v>24763</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4645,13 @@
         <v>121166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -4690,13 +4660,13 @@
         <v>60270</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -4705,13 +4675,13 @@
         <v>181436</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4696,13 @@
         <v>22649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4741,13 +4711,13 @@
         <v>18937</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -4756,13 +4726,13 @@
         <v>41585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4747,13 @@
         <v>10148</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -4792,13 +4762,13 @@
         <v>16336</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -4807,19 +4777,19 @@
         <v>26485</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -4828,13 +4798,13 @@
         <v>1010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4849,7 +4819,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4858,13 +4828,13 @@
         <v>1010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4849,13 @@
         <v>181458</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -4894,13 +4864,13 @@
         <v>114716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>284</v>
@@ -4909,13 +4879,13 @@
         <v>296174</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4902,13 @@
         <v>1085</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4947,13 +4917,13 @@
         <v>1800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -4962,13 +4932,13 @@
         <v>2886</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4953,13 @@
         <v>1003</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4998,13 +4968,13 @@
         <v>1014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5013,13 +4983,13 @@
         <v>2018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5004,13 @@
         <v>21089</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -5049,13 +5019,13 @@
         <v>18907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -5064,13 +5034,13 @@
         <v>39996</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5055,13 @@
         <v>2877</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5100,13 +5070,13 @@
         <v>1244</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5118,10 +5088,10 @@
         <v>24</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,7 +5112,7 @@
         <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5151,13 +5121,13 @@
         <v>4766</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -5166,19 +5136,19 @@
         <v>4766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -5193,7 +5163,7 @@
         <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5208,7 +5178,7 @@
         <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5223,7 +5193,7 @@
         <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5208,13 @@
         <v>26054</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -5253,13 +5223,13 @@
         <v>27731</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -5268,13 +5238,13 @@
         <v>53785</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5261,13 @@
         <v>16344</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -5306,13 +5276,13 @@
         <v>16971</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -5321,13 +5291,13 @@
         <v>33314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5312,13 @@
         <v>20845</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5357,13 +5327,13 @@
         <v>16382</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -5372,13 +5342,13 @@
         <v>37226</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5363,13 @@
         <v>187446</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H27" s="7">
         <v>132</v>
@@ -5408,13 +5378,13 @@
         <v>141565</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M27" s="7">
         <v>311</v>
@@ -5423,13 +5393,13 @@
         <v>329012</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5414,13 @@
         <v>39919</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -5459,13 +5429,13 @@
         <v>38193</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
@@ -5474,13 +5444,13 @@
         <v>78111</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5465,13 @@
         <v>17703</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -5510,13 +5480,13 @@
         <v>42274</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -5525,19 +5495,19 @@
         <v>59976</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -5546,13 +5516,13 @@
         <v>1010</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5567,7 +5537,7 @@
         <v>51</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -5576,13 +5546,13 @@
         <v>1010</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5567,13 @@
         <v>283266</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>239</v>
@@ -5612,13 +5582,13 @@
         <v>255384</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M31" s="7">
         <v>510</v>
@@ -5627,13 +5597,13 @@
         <v>538650</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,7 +5627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249527CD-C8A5-47E7-B524-16A3D46E52A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C6BAC6-1C27-494D-ADEB-3B58186A4372}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5674,7 +5644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5781,13 +5751,13 @@
         <v>3686</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5796,13 +5766,13 @@
         <v>1285</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5811,13 +5781,13 @@
         <v>4972</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5802,13 @@
         <v>5812</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5847,13 +5817,13 @@
         <v>6486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5862,13 +5832,13 @@
         <v>12298</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5853,13 @@
         <v>24172</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H6" s="7">
         <v>42</v>
@@ -5898,13 +5868,13 @@
         <v>49702</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -5913,13 +5883,13 @@
         <v>73874</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5904,13 @@
         <v>10254</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5949,13 +5919,13 @@
         <v>14966</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -5964,13 +5934,13 @@
         <v>25220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5955,13 @@
         <v>973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6006,7 +5976,7 @@
         <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6015,19 +5985,19 @@
         <v>973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -6042,7 +6012,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>407</v>
+        <v>321</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6057,7 +6027,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6072,7 +6042,7 @@
         <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,13 +6057,13 @@
         <v>44897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -6102,13 +6072,13 @@
         <v>72439</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -6117,18 +6087,18 @@
         <v>117336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -6140,13 +6110,13 @@
         <v>9131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -6155,13 +6125,13 @@
         <v>9945</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -6170,13 +6140,13 @@
         <v>19076</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>416</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>417</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6161,13 @@
         <v>8223</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -6206,13 +6176,13 @@
         <v>6098</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -6221,13 +6191,13 @@
         <v>14321</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>417</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,13 +6212,13 @@
         <v>75467</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>425</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -6257,13 +6227,13 @@
         <v>50113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -6272,13 +6242,13 @@
         <v>125580</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6263,13 @@
         <v>21143</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -6308,13 +6278,13 @@
         <v>12403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -6323,13 +6293,13 @@
         <v>33546</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6314,13 @@
         <v>4002</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>441</v>
+        <v>186</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -6362,10 +6332,10 @@
         <v>207</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>440</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -6374,19 +6344,19 @@
         <v>8760</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>228</v>
+        <v>441</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>445</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -6401,7 +6371,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6410,13 +6380,13 @@
         <v>2529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>444</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6425,13 +6395,13 @@
         <v>2529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,13 +6416,13 @@
         <v>117967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -6461,13 +6431,13 @@
         <v>85845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>193</v>
@@ -6476,13 +6446,13 @@
         <v>203812</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6469,13 @@
         <v>5491</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6514,13 +6484,13 @@
         <v>1929</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -6529,13 +6499,13 @@
         <v>7420</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>455</v>
+        <v>270</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>456</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6520,13 @@
         <v>1970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6565,13 +6535,13 @@
         <v>2345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -6580,13 +6550,13 @@
         <v>4315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6571,13 @@
         <v>16010</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6616,13 +6586,13 @@
         <v>20203</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -6631,13 +6601,13 @@
         <v>36213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6622,13 @@
         <v>6457</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -6667,13 +6637,13 @@
         <v>6530</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -6682,13 +6652,13 @@
         <v>12987</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>233</v>
+        <v>476</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6673,13 @@
         <v>868</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6724,7 +6694,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -6733,19 +6703,19 @@
         <v>868</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -6760,7 +6730,7 @@
         <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6775,7 +6745,7 @@
         <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6790,7 +6760,7 @@
         <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6775,13 @@
         <v>30796</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -6820,13 +6790,13 @@
         <v>31007</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M24" s="7">
         <v>55</v>
@@ -6835,13 +6805,13 @@
         <v>61803</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,13 +6828,13 @@
         <v>18308</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>488</v>
+        <v>102</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6873,13 +6843,13 @@
         <v>13160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -6888,13 +6858,13 @@
         <v>31468</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>492</v>
+        <v>264</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>320</v>
+        <v>488</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +6879,13 @@
         <v>16005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6924,13 +6894,13 @@
         <v>14928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>497</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>498</v>
+        <v>253</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -6939,13 +6909,13 @@
         <v>30934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>500</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,13 +6930,13 @@
         <v>115649</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="H27" s="7">
         <v>109</v>
@@ -6975,13 +6945,13 @@
         <v>120017</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M27" s="7">
         <v>222</v>
@@ -6990,13 +6960,13 @@
         <v>235667</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +6981,13 @@
         <v>37854</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>512</v>
+        <v>111</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -7026,13 +6996,13 @@
         <v>33899</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -7041,13 +7011,13 @@
         <v>71753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>517</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>95</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,13 +7032,13 @@
         <v>5843</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -7077,13 +7047,13 @@
         <v>4757</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>522</v>
+        <v>362</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>416</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -7092,19 +7062,19 @@
         <v>10601</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>515</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -7119,7 +7089,7 @@
         <v>51</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -7128,13 +7098,13 @@
         <v>2529</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -7143,13 +7113,13 @@
         <v>2529</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>25</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7134,13 @@
         <v>193660</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>170</v>
@@ -7179,13 +7149,13 @@
         <v>189291</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M31" s="7">
         <v>357</v>
@@ -7194,13 +7164,13 @@
         <v>382951</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,7 +7194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF4B76-4DB0-4225-92E9-7D7701FE76C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E2560D-42CB-4271-86D6-72D2E2FD18DA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7241,7 +7211,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7348,13 +7318,13 @@
         <v>5001</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -7363,13 +7333,13 @@
         <v>7763</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -7378,13 +7348,13 @@
         <v>12764</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7369,13 @@
         <v>365</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>251</v>
+        <v>533</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -7414,13 +7384,13 @@
         <v>3441</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>534</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7429,13 +7399,13 @@
         <v>3806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>537</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7420,13 @@
         <v>21130</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H6" s="7">
         <v>105</v>
@@ -7465,13 +7435,13 @@
         <v>55812</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M6" s="7">
         <v>139</v>
@@ -7480,13 +7450,13 @@
         <v>76941</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7471,13 @@
         <v>9755</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -7516,13 +7486,13 @@
         <v>18219</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -7531,13 +7501,13 @@
         <v>27974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,7 +7528,7 @@
         <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7567,13 +7537,13 @@
         <v>501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>562</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7582,19 +7552,19 @@
         <v>501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -7609,7 +7579,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7618,13 +7588,13 @@
         <v>653</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7633,13 +7603,13 @@
         <v>653</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7624,13 @@
         <v>36251</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>157</v>
@@ -7669,13 +7639,13 @@
         <v>86390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -7684,18 +7654,18 @@
         <v>122640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -7707,13 +7677,13 @@
         <v>14344</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -7722,13 +7692,13 @@
         <v>10050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -7737,13 +7707,13 @@
         <v>24394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>571</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>572</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7758,13 +7728,13 @@
         <v>17471</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -7773,13 +7743,13 @@
         <v>7607</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -7788,13 +7758,13 @@
         <v>25078</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,13 +7779,13 @@
         <v>64601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -7824,13 +7794,13 @@
         <v>69748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>588</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -7839,13 +7809,13 @@
         <v>134349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7860,13 +7830,13 @@
         <v>34246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -7875,13 +7845,13 @@
         <v>18856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>596</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -7890,13 +7860,13 @@
         <v>53102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7911,13 +7881,13 @@
         <v>1186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>572</v>
+        <v>149</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -7926,13 +7896,13 @@
         <v>4603</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -7941,19 +7911,19 @@
         <v>5790</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -7962,13 +7932,13 @@
         <v>1336</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>601</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7983,7 +7953,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7992,13 +7962,13 @@
         <v>1336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,13 +7983,13 @@
         <v>133185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>147</v>
@@ -8028,13 +7998,13 @@
         <v>110864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -8043,13 +8013,13 @@
         <v>244049</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8066,13 +8036,13 @@
         <v>8242</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -8081,13 +8051,13 @@
         <v>2825</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>350</v>
+        <v>611</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -8096,13 +8066,13 @@
         <v>11068</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>617</v>
+        <v>141</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8117,13 +8087,13 @@
         <v>2354</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -8132,13 +8102,13 @@
         <v>1086</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8147,13 +8117,13 @@
         <v>3440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>625</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,13 +8138,13 @@
         <v>16131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -8183,13 +8153,13 @@
         <v>20724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
@@ -8198,13 +8168,13 @@
         <v>36855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8219,13 +8189,13 @@
         <v>6240</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>637</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -8234,13 +8204,13 @@
         <v>8133</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -8249,13 +8219,13 @@
         <v>14374</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,13 +8240,13 @@
         <v>1186</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -8285,13 +8255,13 @@
         <v>847</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>647</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>648</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -8300,19 +8270,19 @@
         <v>2033</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -8327,7 +8297,7 @@
         <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8342,7 +8312,7 @@
         <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8357,7 +8327,7 @@
         <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8372,13 +8342,13 @@
         <v>34154</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -8387,13 +8357,13 @@
         <v>33616</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -8402,13 +8372,13 @@
         <v>67770</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,13 +8395,13 @@
         <v>27588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -8440,13 +8410,13 @@
         <v>20638</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>644</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -8455,13 +8425,13 @@
         <v>48226</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>656</v>
+        <v>473</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8476,13 +8446,13 @@
         <v>20191</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>193</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -8491,13 +8461,13 @@
         <v>12134</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -8506,13 +8476,13 @@
         <v>32325</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>663</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>664</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8527,13 +8497,13 @@
         <v>101862</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="H27" s="7">
         <v>226</v>
@@ -8542,13 +8512,13 @@
         <v>146283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="M27" s="7">
         <v>342</v>
@@ -8557,13 +8527,13 @@
         <v>248145</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8578,13 +8548,13 @@
         <v>50241</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -8593,13 +8563,13 @@
         <v>45209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -8608,13 +8578,13 @@
         <v>95450</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>276</v>
+        <v>669</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>670</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8629,13 +8599,13 @@
         <v>2373</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>682</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>684</v>
+        <v>241</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -8644,13 +8614,13 @@
         <v>5952</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -8659,19 +8629,19 @@
         <v>8324</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>444</v>
+        <v>676</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -8680,13 +8650,13 @@
         <v>1336</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8695,13 +8665,13 @@
         <v>653</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -8710,13 +8680,13 @@
         <v>1989</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>680</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8731,13 +8701,13 @@
         <v>203590</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>357</v>
@@ -8746,13 +8716,13 @@
         <v>230869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M31" s="7">
         <v>568</v>
@@ -8761,13 +8731,13 @@
         <v>434459</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84F4FB28-196D-4A25-913E-209DFC984949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E874EE-B745-4264-911E-17094FCCDCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78BC23A8-8447-4440-A08C-138C9EAE9A80}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F249FEB8-E74A-4473-9988-919DE32097CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="685">
   <si>
     <t>Población según el principal daño o lesión producido en el último accidente en 2007 (Tasa respuesta: 3,19%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>16,49%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>2,36%</t>
@@ -89,1990 +89,2002 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,52%</t>
+    <t>9,69%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>Heridas profundas</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>Contusiones, hematomas, esguinces, luxaciones</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>Fracturas</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>Quemaduras</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>Envenenamiento o Intoxicación (no alimentarias)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
     <t>2,89%</t>
   </si>
   <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el principal daño o lesión producido en el último accidente en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>Heridas profundas</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>Contusiones, hematomas, esguinces, luxaciones</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>Fracturas</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>Población según el principal daño o lesión producido en el último accidente en 2016 (Tasa respuesta: 5,47%)</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>Población según el principal daño o lesión producido en el último accidente en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>Quemaduras</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>Envenenamiento o Intoxicación (no alimentarias)</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el principal daño o lesión producido en el último accidente en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>0,08%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>Población según el principal daño o lesión producido en el último accidente en 2016 (Tasa respuesta: 5,47%)</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>Población según el principal daño o lesión producido en el último accidente en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -2081,7 +2093,7 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,85%</t>
   </si>
 </sst>
 </file>
@@ -2493,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1471D6-521D-4FCE-A817-15BE91606F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60570CF4-4D1F-4163-9E17-F8F067D7CADB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2893,7 +2905,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2908,7 +2920,7 @@
         <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2935,13 @@
         <v>25174</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -2938,13 +2950,13 @@
         <v>45528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -2953,18 +2965,18 @@
         <v>70702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2976,13 +2988,13 @@
         <v>10930</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2991,13 +3003,13 @@
         <v>2821</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -3006,13 +3018,13 @@
         <v>13751</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3039,13 @@
         <v>7993</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3042,13 +3054,13 @@
         <v>1018</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -3057,13 +3069,13 @@
         <v>9011</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3090,13 @@
         <v>33808</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3093,13 +3105,13 @@
         <v>21978</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3108,13 +3120,13 @@
         <v>55786</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3141,13 @@
         <v>19185</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3144,13 +3156,13 @@
         <v>7225</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -3159,13 +3171,13 @@
         <v>26409</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3192,13 @@
         <v>6588</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -3195,13 +3207,13 @@
         <v>2001</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -3210,7 +3222,7 @@
         <v>8589</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>104</v>
@@ -3282,13 +3294,13 @@
         <v>78503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -3297,13 +3309,13 @@
         <v>35042</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -3312,13 +3324,13 @@
         <v>113546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,7 +3434,7 @@
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3449,13 @@
         <v>13467</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3452,13 +3464,13 @@
         <v>7771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -3467,13 +3479,13 @@
         <v>21239</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3500,13 @@
         <v>1827</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3503,13 +3515,13 @@
         <v>3531</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -3518,13 +3530,13 @@
         <v>5358</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3551,13 @@
         <v>949</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3569,13 +3581,13 @@
         <v>949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3608,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3620,13 +3632,13 @@
         <v>1038</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3653,13 @@
         <v>18397</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -3656,13 +3668,13 @@
         <v>13236</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -3671,13 +3683,13 @@
         <v>31633</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3706,13 @@
         <v>15080</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3709,13 +3721,13 @@
         <v>5828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -3724,13 +3736,13 @@
         <v>20909</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3757,13 @@
         <v>12011</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3760,13 +3772,13 @@
         <v>4503</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -3775,13 +3787,13 @@
         <v>16514</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3808,13 @@
         <v>59051</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H27" s="7">
         <v>58</v>
@@ -3811,13 +3823,13 @@
         <v>61404</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M27" s="7">
         <v>116</v>
@@ -3826,13 +3838,13 @@
         <v>120454</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3859,13 @@
         <v>27357</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -3862,13 +3874,13 @@
         <v>17503</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -3877,13 +3889,13 @@
         <v>44860</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,7 +3910,7 @@
         <v>7537</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>179</v>
@@ -3931,10 +3943,10 @@
         <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3961,13 @@
         <v>1038</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3970,7 +3982,7 @@
         <v>51</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3979,13 +3991,13 @@
         <v>1038</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4012,13 @@
         <v>122074</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="7">
         <v>90</v>
@@ -4015,13 +4027,13 @@
         <v>93806</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M31" s="7">
         <v>208</v>
@@ -4030,18 +4042,18 @@
         <v>215880</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB54853-AAE3-4AD2-8A58-F8945F73F23A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE32EFEF-A4CB-4A25-A493-EBC679C540AC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +4089,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4184,13 +4196,13 @@
         <v>4162</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4199,13 +4211,13 @@
         <v>5373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4214,13 +4226,13 @@
         <v>9535</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4247,13 @@
         <v>4453</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4250,13 +4262,13 @@
         <v>5992</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4265,13 +4277,13 @@
         <v>10445</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4298,13 @@
         <v>45191</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>59</v>
@@ -4301,13 +4313,13 @@
         <v>62388</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>100</v>
@@ -4316,13 +4328,13 @@
         <v>107580</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4349,13 @@
         <v>14393</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4352,13 +4364,13 @@
         <v>18012</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4367,13 +4379,13 @@
         <v>32405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4400,13 @@
         <v>7554</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4403,10 +4415,10 @@
         <v>21171</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>233</v>
@@ -4418,10 +4430,10 @@
         <v>28726</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>235</v>
@@ -4445,7 +4457,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4460,7 +4472,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4475,7 +4487,7 @@
         <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4502,13 @@
         <v>75754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -4505,13 +4517,13 @@
         <v>112937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -4520,18 +4532,18 @@
         <v>188691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4543,10 +4555,10 @@
         <v>11096</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>239</v>
@@ -4612,7 +4624,7 @@
         <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>250</v>
@@ -4714,10 +4726,10 @@
         <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -4726,13 +4738,13 @@
         <v>41585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4759,13 @@
         <v>10148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -4762,13 +4774,13 @@
         <v>16336</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -4777,13 +4789,13 @@
         <v>26485</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4810,13 @@
         <v>1010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4819,7 +4831,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4828,13 +4840,13 @@
         <v>1010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4861,13 @@
         <v>181458</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -4864,13 +4876,13 @@
         <v>114716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>284</v>
@@ -4879,13 +4891,13 @@
         <v>296174</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4914,13 @@
         <v>1085</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4917,13 +4929,13 @@
         <v>1800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -4932,13 +4944,13 @@
         <v>2886</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4965,13 @@
         <v>1003</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4968,13 +4980,13 @@
         <v>1014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5208,13 +5220,13 @@
         <v>26054</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -5223,13 +5235,13 @@
         <v>27731</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -5238,13 +5250,13 @@
         <v>53785</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,10 +5306,10 @@
         <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>74</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5324,13 @@
         <v>20845</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5327,13 +5339,13 @@
         <v>16382</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -5342,13 +5354,13 @@
         <v>37226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5375,13 @@
         <v>187446</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H27" s="7">
         <v>132</v>
@@ -5378,13 +5390,13 @@
         <v>141565</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M27" s="7">
         <v>311</v>
@@ -5393,13 +5405,13 @@
         <v>329012</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5426,13 @@
         <v>39919</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -5429,13 +5441,13 @@
         <v>38193</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
@@ -5444,13 +5456,13 @@
         <v>78111</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5477,13 @@
         <v>17703</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -5480,13 +5492,13 @@
         <v>42274</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -5495,13 +5507,13 @@
         <v>59976</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5528,13 @@
         <v>1010</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5537,7 +5549,7 @@
         <v>51</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -5546,13 +5558,13 @@
         <v>1010</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5579,13 @@
         <v>283266</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="7">
         <v>239</v>
@@ -5582,13 +5594,13 @@
         <v>255384</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M31" s="7">
         <v>510</v>
@@ -5597,18 +5609,18 @@
         <v>538650</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5627,7 +5639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C6BAC6-1C27-494D-ADEB-3B58186A4372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA04C8F5-55F1-4CB0-A17C-70D69E100AE4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5644,7 +5656,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5751,13 +5763,13 @@
         <v>3686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5766,13 +5778,13 @@
         <v>1285</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5781,13 +5793,13 @@
         <v>4972</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5814,13 @@
         <v>5812</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5817,13 +5829,13 @@
         <v>6486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5832,13 +5844,13 @@
         <v>12298</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>380</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5865,13 @@
         <v>24172</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>383</v>
+        <v>126</v>
       </c>
       <c r="H6" s="7">
         <v>42</v>
@@ -5868,13 +5880,13 @@
         <v>49702</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -5883,13 +5895,13 @@
         <v>73874</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5916,13 @@
         <v>10254</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5919,13 +5931,13 @@
         <v>14966</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -5934,13 +5946,13 @@
         <v>25220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5967,13 @@
         <v>973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5976,7 +5988,7 @@
         <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5985,13 +5997,13 @@
         <v>973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,7 +6024,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6027,7 +6039,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6042,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>403</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6069,13 @@
         <v>44897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -6072,13 +6084,13 @@
         <v>72439</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -6087,18 +6099,18 @@
         <v>117336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -6110,10 +6122,10 @@
         <v>9131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>406</v>
@@ -6140,13 +6152,13 @@
         <v>19076</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6173,13 @@
         <v>8223</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -6197,7 +6209,7 @@
         <v>418</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>419</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,10 +6224,10 @@
         <v>75467</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>421</v>
@@ -6299,7 +6311,7 @@
         <v>435</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>436</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,10 +6326,10 @@
         <v>4002</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>438</v>
@@ -6329,7 +6341,7 @@
         <v>4757</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>439</v>
@@ -6350,7 +6362,7 @@
         <v>442</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>264</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,7 +6383,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6380,13 +6392,13 @@
         <v>2529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6395,13 +6407,13 @@
         <v>2529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>447</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6428,13 @@
         <v>117967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -6431,13 +6443,13 @@
         <v>85845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>193</v>
@@ -6446,13 +6458,13 @@
         <v>203812</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6511,13 @@
         <v>7420</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>136</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6532,13 @@
         <v>1970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6535,13 +6547,13 @@
         <v>2345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -6550,13 +6562,13 @@
         <v>4315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>459</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,7 +6604,7 @@
         <v>464</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>465</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -6601,13 +6613,13 @@
         <v>36213</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6634,13 @@
         <v>6457</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -6637,13 +6649,13 @@
         <v>6530</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -6652,13 +6664,13 @@
         <v>12987</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6685,13 @@
         <v>868</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>477</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6694,7 +6706,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -6703,13 +6715,13 @@
         <v>868</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>480</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,7 +6742,7 @@
         <v>51</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6745,7 +6757,7 @@
         <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6760,7 +6772,7 @@
         <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6787,13 @@
         <v>30796</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -6790,13 +6802,13 @@
         <v>31007</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>55</v>
@@ -6805,13 +6817,13 @@
         <v>61803</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6840,13 @@
         <v>18308</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6843,13 +6855,13 @@
         <v>13160</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -6858,13 +6870,13 @@
         <v>31468</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>488</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>327</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6891,13 @@
         <v>16005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6894,13 +6906,13 @@
         <v>14928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>495</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>253</v>
+        <v>496</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -6909,13 +6921,13 @@
         <v>30934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,13 +6942,13 @@
         <v>115649</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H27" s="7">
         <v>109</v>
@@ -6945,13 +6957,13 @@
         <v>120017</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M27" s="7">
         <v>222</v>
@@ -6960,13 +6972,13 @@
         <v>235667</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,13 +6993,13 @@
         <v>37854</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>111</v>
+        <v>509</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -6996,13 +7008,13 @@
         <v>33899</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>506</v>
+        <v>287</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -7011,13 +7023,13 @@
         <v>71753</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>150</v>
+        <v>514</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,13 +7044,13 @@
         <v>5843</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>512</v>
+        <v>237</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -7047,13 +7059,13 @@
         <v>4757</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -7062,13 +7074,13 @@
         <v>10601</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,7 +7101,7 @@
         <v>51</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -7098,13 +7110,13 @@
         <v>2529</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -7113,13 +7125,13 @@
         <v>2529</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,13 +7146,13 @@
         <v>193660</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="7">
         <v>170</v>
@@ -7149,13 +7161,13 @@
         <v>189291</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M31" s="7">
         <v>357</v>
@@ -7164,18 +7176,18 @@
         <v>382951</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7194,7 +7206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E2560D-42CB-4271-86D6-72D2E2FD18DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696167B-FD96-4B31-B80B-3EDB621770BA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7211,7 +7223,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7318,13 +7330,13 @@
         <v>5001</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -7333,13 +7345,13 @@
         <v>7763</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -7348,13 +7360,13 @@
         <v>12764</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,13 +7381,13 @@
         <v>365</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -7384,13 +7396,13 @@
         <v>3441</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>534</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7399,13 +7411,13 @@
         <v>3806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7432,13 @@
         <v>21130</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H6" s="7">
         <v>105</v>
@@ -7435,13 +7447,13 @@
         <v>55812</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M6" s="7">
         <v>139</v>
@@ -7450,13 +7462,13 @@
         <v>76941</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7483,13 @@
         <v>9755</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -7486,13 +7498,13 @@
         <v>18219</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>553</v>
+        <v>416</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -7501,13 +7513,13 @@
         <v>27974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>560</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,7 +7540,7 @@
         <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7537,13 +7549,13 @@
         <v>501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>564</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7552,13 +7564,13 @@
         <v>501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,7 +7591,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7588,13 +7600,13 @@
         <v>653</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>561</v>
+        <v>288</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7603,13 +7615,13 @@
         <v>653</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7636,13 @@
         <v>36251</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>157</v>
@@ -7639,13 +7651,13 @@
         <v>86390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -7654,18 +7666,18 @@
         <v>122640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -7677,13 +7689,13 @@
         <v>14344</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -7692,13 +7704,13 @@
         <v>10050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>574</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -7707,13 +7719,13 @@
         <v>24394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>576</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>577</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,13 +7740,13 @@
         <v>17471</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -7743,13 +7755,13 @@
         <v>7607</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -7758,13 +7770,13 @@
         <v>25078</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>576</v>
+        <v>115</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,13 +7791,13 @@
         <v>64601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -7794,13 +7806,13 @@
         <v>69748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>582</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>590</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -7809,13 +7821,13 @@
         <v>134349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7830,13 +7842,13 @@
         <v>34246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -7845,13 +7857,13 @@
         <v>18856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>598</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -7860,13 +7872,13 @@
         <v>53102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>591</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,13 +7893,13 @@
         <v>1186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -7896,13 +7908,13 @@
         <v>4603</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>595</v>
+        <v>241</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -7911,13 +7923,13 @@
         <v>5790</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>600</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,13 +7944,13 @@
         <v>1336</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7953,7 +7965,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7962,13 +7974,13 @@
         <v>1336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>605</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7983,13 +7995,13 @@
         <v>133185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>147</v>
@@ -7998,13 +8010,13 @@
         <v>110864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -8013,13 +8025,13 @@
         <v>244049</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8036,13 +8048,13 @@
         <v>8242</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -8051,13 +8063,13 @@
         <v>2825</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -8066,13 +8078,13 @@
         <v>11068</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>141</v>
+        <v>615</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,13 +8099,13 @@
         <v>2354</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -8102,13 +8114,13 @@
         <v>1086</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8117,13 +8129,13 @@
         <v>3440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>194</v>
+        <v>623</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,13 +8150,13 @@
         <v>16131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>620</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -8153,13 +8165,13 @@
         <v>20724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
@@ -8168,13 +8180,13 @@
         <v>36855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,13 +8201,13 @@
         <v>6240</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>634</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -8204,13 +8216,13 @@
         <v>8133</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -8219,13 +8231,13 @@
         <v>14374</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>634</v>
+        <v>314</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8252,13 @@
         <v>1186</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>637</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -8255,13 +8267,13 @@
         <v>847</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>68</v>
+        <v>642</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>643</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -8270,13 +8282,13 @@
         <v>2033</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,7 +8324,7 @@
         <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8327,7 +8339,7 @@
         <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8342,13 +8354,13 @@
         <v>34154</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -8357,13 +8369,13 @@
         <v>33616</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -8372,13 +8384,13 @@
         <v>67770</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,13 +8407,13 @@
         <v>27588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -8410,13 +8422,13 @@
         <v>20638</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -8425,13 +8437,13 @@
         <v>48226</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>473</v>
+        <v>652</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8446,13 +8458,13 @@
         <v>20191</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>193</v>
+        <v>655</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -8461,13 +8473,13 @@
         <v>12134</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>651</v>
+        <v>520</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>652</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -8476,13 +8488,13 @@
         <v>32325</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>469</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>658</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>653</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8497,13 +8509,13 @@
         <v>101862</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="H27" s="7">
         <v>226</v>
@@ -8512,13 +8524,13 @@
         <v>146283</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="M27" s="7">
         <v>342</v>
@@ -8527,13 +8539,13 @@
         <v>248145</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8548,13 +8560,13 @@
         <v>50241</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -8563,13 +8575,13 @@
         <v>45209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -8578,13 +8590,13 @@
         <v>95450</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>670</v>
+        <v>595</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8599,13 +8611,13 @@
         <v>2373</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>241</v>
+        <v>678</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -8614,13 +8626,13 @@
         <v>5952</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>675</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -8629,13 +8641,13 @@
         <v>8324</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>676</v>
+        <v>313</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>677</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>557</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8650,13 +8662,13 @@
         <v>1336</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>353</v>
+        <v>681</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8665,13 +8677,13 @@
         <v>653</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>512</v>
+        <v>373</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -8680,13 +8692,13 @@
         <v>1989</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8701,13 +8713,13 @@
         <v>203590</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="7">
         <v>357</v>
@@ -8716,13 +8728,13 @@
         <v>230869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M31" s="7">
         <v>568</v>
@@ -8731,18 +8743,18 @@
         <v>434459</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E874EE-B745-4264-911E-17094FCCDCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA0BD20-701C-4FE9-9BEC-202925381E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F249FEB8-E74A-4473-9988-919DE32097CB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9C0936C3-E3F1-4004-A403-B9F7B0B5F0AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="691">
   <si>
     <t>Población según el principal daño o lesión producido en el último accidente en 2007 (Tasa respuesta: 3,19%)</t>
   </si>
@@ -1628,103 +1628,94 @@
     <t>Población según el principal daño o lesión producido en el último accidente en 2023 (Tasa respuesta: 6,53%)</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>3,54%</t>
@@ -1733,367 +1724,394 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>5,85%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60570CF4-4D1F-4163-9E17-F8F067D7CADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78E9682-5C0C-4B44-BAFB-76D8EB03A7C5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4072,7 +4090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE32EFEF-A4CB-4A25-A493-EBC679C540AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3347D21A-82C1-4A7A-8662-CC497EED07A3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5639,7 +5657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA04C8F5-55F1-4CB0-A17C-70D69E100AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106D3F13-15FB-4337-A15D-0F60B88963DE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7206,7 +7224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2696167B-FD96-4B31-B80B-3EDB621770BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604160A6-223D-4BEE-A76D-57888119B613}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7327,7 +7345,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>5001</v>
+        <v>4830</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>529</v>
@@ -7342,31 +7360,31 @@
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>7763</v>
+        <v>7112</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>12764</v>
+        <v>11942</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,46 +7396,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>539</v>
+        <v>53</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>3441</v>
+        <v>2951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>537</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>3806</v>
+        <v>3297</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,46 +7447,46 @@
         <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>21130</v>
+        <v>20729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H6" s="7">
         <v>105</v>
       </c>
       <c r="I6" s="7">
-        <v>55812</v>
+        <v>51911</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M6" s="7">
         <v>139</v>
       </c>
       <c r="N6" s="7">
-        <v>76941</v>
+        <v>72640</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,46 +7498,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>555</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>18219</v>
+        <v>16525</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>416</v>
+        <v>554</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>27974</v>
+        <v>26226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,37 +7558,37 @@
         <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,37 +7609,37 @@
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>653</v>
+        <v>594</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>288</v>
+        <v>565</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>653</v>
+        <v>594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,7 +7651,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>36251</v>
+        <v>35606</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -7648,7 +7666,7 @@
         <v>157</v>
       </c>
       <c r="I10" s="7">
-        <v>86390</v>
+        <v>79554</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>61</v>
@@ -7663,7 +7681,7 @@
         <v>210</v>
       </c>
       <c r="N10" s="7">
-        <v>122640</v>
+        <v>115160</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>61</v>
@@ -7686,46 +7704,46 @@
         <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>14344</v>
+        <v>13616</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H11" s="7">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9057</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="H11" s="7">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10050</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>573</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>574</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>575</v>
+        <v>411</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
       </c>
       <c r="N11" s="7">
-        <v>24394</v>
+        <v>22673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,46 +7755,46 @@
         <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>17471</v>
+        <v>18342</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>7607</v>
+        <v>7032</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
       </c>
       <c r="N12" s="7">
-        <v>25078</v>
+        <v>25373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>585</v>
+        <v>401</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>115</v>
+        <v>580</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,46 +7806,46 @@
         <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>64601</v>
+        <v>62843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
       </c>
       <c r="I13" s="7">
-        <v>69748</v>
+        <v>63998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>586</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
       </c>
       <c r="N13" s="7">
-        <v>134349</v>
+        <v>126842</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,46 +7857,46 @@
         <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>34246</v>
+        <v>32677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>595</v>
+        <v>448</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>18856</v>
+        <v>17612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>598</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
       </c>
       <c r="N14" s="7">
-        <v>53102</v>
+        <v>50289</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>595</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>554</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7890,46 +7908,46 @@
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>288</v>
+        <v>599</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
       </c>
       <c r="I15" s="7">
-        <v>4603</v>
+        <v>4258</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>241</v>
+        <v>600</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
       </c>
       <c r="N15" s="7">
-        <v>5790</v>
+        <v>5426</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7941,16 +7959,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1336</v>
+        <v>1396</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>606</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7971,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>1336</v>
+        <v>1396</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>608</v>
@@ -7980,7 +7998,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>18</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7992,7 +8010,7 @@
         <v>125</v>
       </c>
       <c r="D17" s="7">
-        <v>133185</v>
+        <v>130042</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>61</v>
@@ -8007,7 +8025,7 @@
         <v>147</v>
       </c>
       <c r="I17" s="7">
-        <v>110864</v>
+        <v>101957</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>61</v>
@@ -8022,7 +8040,7 @@
         <v>272</v>
       </c>
       <c r="N17" s="7">
-        <v>244049</v>
+        <v>231999</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>61</v>
@@ -8045,46 +8063,46 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>8242</v>
+        <v>8823</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2825</v>
+        <v>2465</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>11068</v>
+        <v>11289</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,10 +8114,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>2354</v>
+        <v>2256</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>618</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -8111,7 +8129,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1086</v>
+        <v>994</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>620</v>
@@ -8126,16 +8144,16 @@
         <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>3440</v>
+        <v>3251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>622</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>623</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>624</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8147,46 +8165,46 @@
         <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>16131</v>
+        <v>15271</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>623</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
       </c>
       <c r="I20" s="7">
-        <v>20724</v>
+        <v>19072</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="M20" s="7">
         <v>52</v>
       </c>
       <c r="N20" s="7">
-        <v>36855</v>
+        <v>34343</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,46 +8216,46 @@
         <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>6240</v>
+        <v>5863</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>634</v>
+        <v>64</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
       </c>
       <c r="I21" s="7">
-        <v>8133</v>
+        <v>7551</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
       </c>
       <c r="N21" s="7">
-        <v>14374</v>
+        <v>13415</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>314</v>
+        <v>636</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,46 +8267,46 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1186</v>
+        <v>1012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>639</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>847</v>
+        <v>783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>642</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>2033</v>
+        <v>1795</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>642</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,7 +8342,7 @@
         <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8339,7 +8357,7 @@
         <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,7 +8369,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="7">
-        <v>34154</v>
+        <v>33226</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>61</v>
@@ -8366,7 +8384,7 @@
         <v>53</v>
       </c>
       <c r="I24" s="7">
-        <v>33616</v>
+        <v>30866</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>61</v>
@@ -8381,7 +8399,7 @@
         <v>86</v>
       </c>
       <c r="N24" s="7">
-        <v>67770</v>
+        <v>64092</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>61</v>
@@ -8404,25 +8422,25 @@
         <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>27588</v>
+        <v>27269</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
       </c>
       <c r="I25" s="7">
-        <v>20638</v>
+        <v>18634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>275</v>
+        <v>648</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>649</v>
@@ -8434,7 +8452,7 @@
         <v>54</v>
       </c>
       <c r="N25" s="7">
-        <v>48226</v>
+        <v>45904</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>651</v>
@@ -8455,46 +8473,46 @@
         <v>15</v>
       </c>
       <c r="D26" s="7">
-        <v>20191</v>
+        <v>20944</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>654</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>15</v>
+      </c>
+      <c r="I26" s="7">
+        <v>10977</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="H26" s="7">
-        <v>15</v>
-      </c>
-      <c r="I26" s="7">
-        <v>12134</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>658</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
       </c>
       <c r="N26" s="7">
-        <v>32325</v>
+        <v>31921</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>469</v>
+        <v>659</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8506,46 +8524,46 @@
         <v>116</v>
       </c>
       <c r="D27" s="7">
-        <v>101862</v>
+        <v>98843</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="H27" s="7">
         <v>226</v>
       </c>
       <c r="I27" s="7">
-        <v>146283</v>
+        <v>134981</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="M27" s="7">
         <v>342</v>
       </c>
       <c r="N27" s="7">
-        <v>248145</v>
+        <v>233825</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8557,46 +8575,46 @@
         <v>53</v>
       </c>
       <c r="D28" s="7">
-        <v>50241</v>
+        <v>48241</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
       </c>
       <c r="I28" s="7">
-        <v>45209</v>
+        <v>41689</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>672</v>
+        <v>535</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
       </c>
       <c r="N28" s="7">
-        <v>95450</v>
+        <v>89929</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>595</v>
+        <v>677</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8608,46 +8626,46 @@
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>2373</v>
+        <v>2180</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>678</v>
+        <v>561</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>5952</v>
+        <v>5502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>683</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
       </c>
       <c r="N29" s="7">
-        <v>8324</v>
+        <v>7682</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>313</v>
+        <v>684</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>685</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8659,46 +8677,46 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>1336</v>
+        <v>1396</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>526</v>
+        <v>686</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>653</v>
+        <v>594</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>373</v>
+        <v>689</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>683</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8710,7 +8728,7 @@
         <v>211</v>
       </c>
       <c r="D31" s="7">
-        <v>203590</v>
+        <v>198874</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>61</v>
@@ -8725,7 +8743,7 @@
         <v>357</v>
       </c>
       <c r="I31" s="7">
-        <v>230869</v>
+        <v>212377</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>61</v>
@@ -8740,7 +8758,7 @@
         <v>568</v>
       </c>
       <c r="N31" s="7">
-        <v>434459</v>
+        <v>411252</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>61</v>
